--- a/TechComm/assignments/website-analysis-table/Website-Analysis-Table.xlsx
+++ b/TechComm/assignments/website-analysis-table/Website-Analysis-Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\github\TechComm\assignments\website-analysis-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E39D5A-080C-46DA-A0EA-3786E407E9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3B53D6-1BE7-4452-ACDA-B091E9843EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7367FFBE-C202-EC45-B260-E8497081E4AC}"/>
+    <workbookView xWindow="1815" yWindow="90" windowWidth="25815" windowHeight="15375" xr2:uid="{7367FFBE-C202-EC45-B260-E8497081E4AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Memo" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>MEMO</t>
   </si>
@@ -180,18 +180,6 @@
     <t>Link to the Webpage</t>
   </si>
   <si>
-    <t>Website 1 (replace with name)</t>
-  </si>
-  <si>
-    <t>Website 2 (replace with name)</t>
-  </si>
-  <si>
-    <t>Website 3 (replace with name)</t>
-  </si>
-  <si>
-    <t>Website 4 (replace with name)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -211,6 +199,21 @@
       </rPr>
       <t>Identify and discuss the approach you took to finding the information. Where did you find the information? Identify your sources in writing. You don't have to list all of the biblio material. Just indicate the source titles.</t>
     </r>
+  </si>
+  <si>
+    <t>Ethical Considerations</t>
+  </si>
+  <si>
+    <t>Webpage 1 (replace with name)</t>
+  </si>
+  <si>
+    <t>Webpage 2 (replace with name)</t>
+  </si>
+  <si>
+    <t>Webpage 3 (replace with name)</t>
+  </si>
+  <si>
+    <t>Webpage 4 (replace with name)</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -303,7 +306,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FA3964-1F1A-564D-BE51-559785A1C377}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D11"/>
     </sheetView>
   </sheetViews>
@@ -685,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75">
@@ -753,30 +755,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E96C9BC-D5D8-3949-BE63-532F775EEB23}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="1.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="1.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="25.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="1.875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="25.875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="1.875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="1.875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="25.875" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="20.875" style="7"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="1.875" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="1.875" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="25.875" customWidth="1"/>
+    <col min="9" max="9" width="1.875" customWidth="1"/>
+    <col min="10" max="10" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="1.875" customWidth="1"/>
+    <col min="12" max="12" width="25.875" customWidth="1"/>
+    <col min="13" max="13" width="1.875" customWidth="1"/>
+    <col min="14" max="14" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>23</v>
@@ -795,16 +798,20 @@
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -829,8 +836,12 @@
       <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4"/>
@@ -843,10 +854,12 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
@@ -871,8 +884,12 @@
       <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
@@ -885,10 +902,12 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -913,8 +932,12 @@
       <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="18.75">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
@@ -927,10 +950,12 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
@@ -955,8 +980,12 @@
       <c r="L8" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -969,6 +998,8 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
